--- a/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/42/FD_Curve.xlsx
+++ b/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/42/FD_Curve.xlsx
@@ -477,10 +477,10 @@
         <v>0.0620038</v>
       </c>
       <c r="B4" t="n">
-        <v>2.24424</v>
+        <v>2.0982</v>
       </c>
       <c r="C4" t="n">
-        <v>2244.24</v>
+        <v>2098.2</v>
       </c>
     </row>
     <row r="5">
@@ -488,1077 +488,1077 @@
         <v>0.0929936</v>
       </c>
       <c r="B5" t="n">
-        <v>3.42934</v>
+        <v>2.22008</v>
       </c>
       <c r="C5" t="n">
-        <v>3429.34</v>
+        <v>2220.08</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.124006</v>
+        <v>0.12397</v>
       </c>
       <c r="B6" t="n">
-        <v>4.399850000000001</v>
+        <v>2.31243</v>
       </c>
       <c r="C6" t="n">
-        <v>4399.85</v>
+        <v>2312.43</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.155041</v>
+        <v>0.154946</v>
       </c>
       <c r="B7" t="n">
-        <v>5.63424</v>
+        <v>2.37731</v>
       </c>
       <c r="C7" t="n">
-        <v>5634.24</v>
+        <v>2377.31</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.186012</v>
+        <v>0.185922</v>
       </c>
       <c r="B8" t="n">
-        <v>6.667590000000001</v>
+        <v>2.42597</v>
       </c>
       <c r="C8" t="n">
-        <v>6667.59</v>
+        <v>2425.97</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.216989</v>
+        <v>0.216899</v>
       </c>
       <c r="B9" t="n">
-        <v>7.86267</v>
+        <v>2.46416</v>
       </c>
       <c r="C9" t="n">
-        <v>7862.67</v>
+        <v>2464.16</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.247923</v>
+        <v>0.247875</v>
       </c>
       <c r="B10" t="n">
-        <v>8.911809999999999</v>
+        <v>2.49496</v>
       </c>
       <c r="C10" t="n">
-        <v>8911.809999999999</v>
+        <v>2494.96</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.278848</v>
+        <v>0.278804</v>
       </c>
       <c r="B11" t="n">
-        <v>9.817</v>
+        <v>2.52317</v>
       </c>
       <c r="C11" t="n">
-        <v>9817</v>
+        <v>2523.17</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.309773</v>
+        <v>0.309729</v>
       </c>
       <c r="B12" t="n">
-        <v>10.6021</v>
+        <v>2.54776</v>
       </c>
       <c r="C12" t="n">
-        <v>10602.1</v>
+        <v>2547.76</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.340699</v>
+        <v>0.340654</v>
       </c>
       <c r="B13" t="n">
-        <v>11.4704</v>
+        <v>2.56932</v>
       </c>
       <c r="C13" t="n">
-        <v>11470.4</v>
+        <v>2569.32</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.371624</v>
+        <v>0.371579</v>
       </c>
       <c r="B14" t="n">
-        <v>12.3992</v>
+        <v>2.58826</v>
       </c>
       <c r="C14" t="n">
-        <v>12399.2</v>
+        <v>2588.26</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.402549</v>
+        <v>0.402504</v>
       </c>
       <c r="B15" t="n">
-        <v>13.0871</v>
+        <v>2.60515</v>
       </c>
       <c r="C15" t="n">
-        <v>13087.1</v>
+        <v>2605.15</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.433474</v>
+        <v>0.433429</v>
       </c>
       <c r="B16" t="n">
-        <v>13.881</v>
+        <v>2.61987</v>
       </c>
       <c r="C16" t="n">
-        <v>13881</v>
+        <v>2619.87</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.464399</v>
+        <v>0.464349</v>
       </c>
       <c r="B17" t="n">
-        <v>14.3865</v>
+        <v>2.63312</v>
       </c>
       <c r="C17" t="n">
-        <v>14386.5</v>
+        <v>2633.12</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.495324</v>
+        <v>0.495274</v>
       </c>
       <c r="B18" t="n">
-        <v>14.7914</v>
+        <v>2.64486</v>
       </c>
       <c r="C18" t="n">
-        <v>14791.4</v>
+        <v>2644.86</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.526249</v>
+        <v>0.526199</v>
       </c>
       <c r="B19" t="n">
-        <v>14.868</v>
+        <v>2.65532</v>
       </c>
       <c r="C19" t="n">
-        <v>14868</v>
+        <v>2655.32</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.5571739999999999</v>
+        <v>0.557124</v>
       </c>
       <c r="B20" t="n">
-        <v>14.8034</v>
+        <v>2.66479</v>
       </c>
       <c r="C20" t="n">
-        <v>14803.4</v>
+        <v>2664.79</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.588099</v>
+        <v>0.588049</v>
       </c>
       <c r="B21" t="n">
-        <v>14.7455</v>
+        <v>2.67326</v>
       </c>
       <c r="C21" t="n">
-        <v>14745.5</v>
+        <v>2673.26</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.6191410000000001</v>
+        <v>0.6190909999999999</v>
       </c>
       <c r="B22" t="n">
-        <v>14.6767</v>
+        <v>2.68082</v>
       </c>
       <c r="C22" t="n">
-        <v>14676.7</v>
+        <v>2680.82</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.650313</v>
+        <v>0.650269</v>
       </c>
       <c r="B23" t="n">
-        <v>14.6014</v>
+        <v>2.68768</v>
       </c>
       <c r="C23" t="n">
-        <v>14601.4</v>
+        <v>2687.68</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.681486</v>
+        <v>0.681441</v>
       </c>
       <c r="B24" t="n">
-        <v>14.5173</v>
+        <v>2.69384</v>
       </c>
       <c r="C24" t="n">
-        <v>14517.3</v>
+        <v>2693.84</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.712663</v>
+        <v>0.712614</v>
       </c>
       <c r="B25" t="n">
-        <v>14.4277</v>
+        <v>2.69931</v>
       </c>
       <c r="C25" t="n">
-        <v>14427.7</v>
+        <v>2699.31</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.7438360000000001</v>
+        <v>0.743791</v>
       </c>
       <c r="B26" t="n">
-        <v>14.3341</v>
+        <v>2.70417</v>
       </c>
       <c r="C26" t="n">
-        <v>14334.1</v>
+        <v>2704.17</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.775013</v>
+        <v>0.774963</v>
       </c>
       <c r="B27" t="n">
-        <v>14.229</v>
+        <v>2.70847</v>
       </c>
       <c r="C27" t="n">
-        <v>14229</v>
+        <v>2708.47</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.806185</v>
+        <v>0.806136</v>
       </c>
       <c r="B28" t="n">
-        <v>14.1257</v>
+        <v>2.71225</v>
       </c>
       <c r="C28" t="n">
-        <v>14125.7</v>
+        <v>2712.25</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.837358</v>
+        <v>0.837313</v>
       </c>
       <c r="B29" t="n">
-        <v>14.0064</v>
+        <v>2.71552</v>
       </c>
       <c r="C29" t="n">
-        <v>14006.4</v>
+        <v>2715.52</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.8685349999999999</v>
+        <v>0.868485</v>
       </c>
       <c r="B30" t="n">
-        <v>13.89</v>
+        <v>2.71832</v>
       </c>
       <c r="C30" t="n">
-        <v>13890</v>
+        <v>2718.32</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.899707</v>
+        <v>0.899658</v>
       </c>
       <c r="B31" t="n">
-        <v>13.7605</v>
+        <v>2.72067</v>
       </c>
       <c r="C31" t="n">
-        <v>13760.5</v>
+        <v>2720.67</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.93088</v>
+        <v>0.930835</v>
       </c>
       <c r="B32" t="n">
-        <v>13.628</v>
+        <v>2.7226</v>
       </c>
       <c r="C32" t="n">
-        <v>13628</v>
+        <v>2722.6</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.9620570000000001</v>
+        <v>0.9620069999999999</v>
       </c>
       <c r="B33" t="n">
-        <v>13.488</v>
+        <v>2.72412</v>
       </c>
       <c r="C33" t="n">
-        <v>13488</v>
+        <v>2724.12</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.993229</v>
+        <v>0.993184</v>
       </c>
       <c r="B34" t="n">
-        <v>13.3386</v>
+        <v>2.72522</v>
       </c>
       <c r="C34" t="n">
-        <v>13338.6</v>
+        <v>2725.22</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1.02425</v>
+        <v>1.02448</v>
       </c>
       <c r="B35" t="n">
-        <v>13.1901</v>
+        <v>2.72589</v>
       </c>
       <c r="C35" t="n">
-        <v>13190.1</v>
+        <v>2725.89</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1.05522</v>
+        <v>1.05586</v>
       </c>
       <c r="B36" t="n">
-        <v>13.0261</v>
+        <v>2.72618</v>
       </c>
       <c r="C36" t="n">
-        <v>13026.1</v>
+        <v>2726.18</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1.08619</v>
+        <v>1.08725</v>
       </c>
       <c r="B37" t="n">
-        <v>12.8644</v>
+        <v>2.72609</v>
       </c>
       <c r="C37" t="n">
-        <v>12864.4</v>
+        <v>2726.09</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1.11716</v>
+        <v>1.11862</v>
       </c>
       <c r="B38" t="n">
-        <v>12.6886</v>
+        <v>2.72563</v>
       </c>
       <c r="C38" t="n">
-        <v>12688.6</v>
+        <v>2725.63</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1.14813</v>
+        <v>1.15</v>
       </c>
       <c r="B39" t="n">
-        <v>12.5102</v>
+        <v>2.72481</v>
       </c>
       <c r="C39" t="n">
-        <v>12510.2</v>
+        <v>2724.81</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1.17929</v>
+        <v>1.18139</v>
       </c>
       <c r="B40" t="n">
-        <v>10.7863</v>
+        <v>2.72365</v>
       </c>
       <c r="C40" t="n">
-        <v>10786.3</v>
+        <v>2723.65</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1.21034</v>
+        <v>1.21277</v>
       </c>
       <c r="B41" t="n">
-        <v>6.95587</v>
+        <v>2.72212</v>
       </c>
       <c r="C41" t="n">
-        <v>6955.87</v>
+        <v>2722.12</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1.24106</v>
+        <v>1.24415</v>
       </c>
       <c r="B42" t="n">
-        <v>9.8178</v>
+        <v>2.72026</v>
       </c>
       <c r="C42" t="n">
-        <v>9817.799999999999</v>
+        <v>2720.26</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1.27178</v>
+        <v>1.27553</v>
       </c>
       <c r="B43" t="n">
-        <v>12.4039</v>
+        <v>2.71804</v>
       </c>
       <c r="C43" t="n">
-        <v>12403.9</v>
+        <v>2718.04</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1.30299</v>
+        <v>1.30655</v>
       </c>
       <c r="B44" t="n">
-        <v>12.3502</v>
+        <v>2.71549</v>
       </c>
       <c r="C44" t="n">
-        <v>12350.2</v>
+        <v>2715.49</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1.33429</v>
+        <v>1.33752</v>
       </c>
       <c r="B45" t="n">
-        <v>12.3193</v>
+        <v>2.71261</v>
       </c>
       <c r="C45" t="n">
-        <v>12319.3</v>
+        <v>2712.61</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1.36512</v>
+        <v>1.36849</v>
       </c>
       <c r="B46" t="n">
-        <v>11.87</v>
+        <v>2.70935</v>
       </c>
       <c r="C46" t="n">
-        <v>11870</v>
+        <v>2709.35</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1.39623</v>
+        <v>1.39945</v>
       </c>
       <c r="B47" t="n">
-        <v>11.6407</v>
+        <v>2.70563</v>
       </c>
       <c r="C47" t="n">
-        <v>11640.7</v>
+        <v>2705.63</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1.42731</v>
+        <v>1.43042</v>
       </c>
       <c r="B48" t="n">
-        <v>11.6057</v>
+        <v>2.7015</v>
       </c>
       <c r="C48" t="n">
-        <v>11605.7</v>
+        <v>2701.5</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1.45799</v>
+        <v>1.46139</v>
       </c>
       <c r="B49" t="n">
-        <v>11.4064</v>
+        <v>2.69705</v>
       </c>
       <c r="C49" t="n">
-        <v>11406.4</v>
+        <v>2697.05</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1.48923</v>
+        <v>1.49236</v>
       </c>
       <c r="B50" t="n">
-        <v>11.3461</v>
+        <v>2.69227</v>
       </c>
       <c r="C50" t="n">
-        <v>11346.1</v>
+        <v>2692.27</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1.52031</v>
+        <v>1.52333</v>
       </c>
       <c r="B51" t="n">
-        <v>11.0206</v>
+        <v>2.68712</v>
       </c>
       <c r="C51" t="n">
-        <v>11020.6</v>
+        <v>2687.12</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1.55133</v>
+        <v>1.55399</v>
       </c>
       <c r="B52" t="n">
-        <v>10.7024</v>
+        <v>2.68165</v>
       </c>
       <c r="C52" t="n">
-        <v>10702.4</v>
+        <v>2681.65</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1.58233</v>
+        <v>1.58454</v>
       </c>
       <c r="B53" t="n">
-        <v>10.4722</v>
+        <v>2.6758</v>
       </c>
       <c r="C53" t="n">
-        <v>10472.2</v>
+        <v>2675.8</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1.6133</v>
+        <v>1.6151</v>
       </c>
       <c r="B54" t="n">
-        <v>10.3254</v>
+        <v>2.66954</v>
       </c>
       <c r="C54" t="n">
-        <v>10325.4</v>
+        <v>2669.54</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1.64437</v>
+        <v>1.64565</v>
       </c>
       <c r="B55" t="n">
-        <v>10.1893</v>
+        <v>2.66287</v>
       </c>
       <c r="C55" t="n">
-        <v>10189.3</v>
+        <v>2662.87</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>1.67524</v>
+        <v>1.67621</v>
       </c>
       <c r="B56" t="n">
-        <v>9.926120000000001</v>
+        <v>2.65573</v>
       </c>
       <c r="C56" t="n">
-        <v>9926.120000000001</v>
+        <v>2655.73</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1.70635</v>
+        <v>1.70676</v>
       </c>
       <c r="B57" t="n">
-        <v>9.65165</v>
+        <v>2.64805</v>
       </c>
       <c r="C57" t="n">
-        <v>9651.65</v>
+        <v>2648.05</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1.73725</v>
+        <v>1.73731</v>
       </c>
       <c r="B58" t="n">
-        <v>9.384030000000001</v>
+        <v>2.63989</v>
       </c>
       <c r="C58" t="n">
-        <v>9384.030000000001</v>
+        <v>2639.89</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>1.76836</v>
+        <v>1.76787</v>
       </c>
       <c r="B59" t="n">
-        <v>9.331629999999999</v>
+        <v>2.63125</v>
       </c>
       <c r="C59" t="n">
-        <v>9331.629999999999</v>
+        <v>2631.25</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1.79933</v>
+        <v>1.79843</v>
       </c>
       <c r="B60" t="n">
-        <v>9.1286</v>
+        <v>2.62212</v>
       </c>
       <c r="C60" t="n">
-        <v>9128.6</v>
+        <v>2622.12</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>1.83016</v>
+        <v>1.82898</v>
       </c>
       <c r="B61" t="n">
-        <v>8.96119</v>
+        <v>2.61249</v>
       </c>
       <c r="C61" t="n">
-        <v>8961.190000000001</v>
+        <v>2612.49</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>1.86126</v>
+        <v>1.85954</v>
       </c>
       <c r="B62" t="n">
-        <v>8.7173</v>
+        <v>2.60231</v>
       </c>
       <c r="C62" t="n">
-        <v>8717.299999999999</v>
+        <v>2602.31</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>1.89204</v>
+        <v>1.89009</v>
       </c>
       <c r="B63" t="n">
-        <v>8.55982</v>
+        <v>2.59162</v>
       </c>
       <c r="C63" t="n">
-        <v>8559.82</v>
+        <v>2591.62</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>1.92335</v>
+        <v>1.92107</v>
       </c>
       <c r="B64" t="n">
-        <v>8.45392</v>
+        <v>2.58017</v>
       </c>
       <c r="C64" t="n">
-        <v>8453.92</v>
+        <v>2580.17</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>1.9543</v>
+        <v>1.95264</v>
       </c>
       <c r="B65" t="n">
-        <v>8.28626</v>
+        <v>2.56787</v>
       </c>
       <c r="C65" t="n">
-        <v>8286.26</v>
+        <v>2567.87</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>1.98515</v>
+        <v>1.9842</v>
       </c>
       <c r="B66" t="n">
-        <v>8.123850000000001</v>
+        <v>2.55493</v>
       </c>
       <c r="C66" t="n">
-        <v>8123.85</v>
+        <v>2554.93</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>2.01645</v>
+        <v>2.01539</v>
       </c>
       <c r="B67" t="n">
-        <v>8.01704</v>
+        <v>2.54135</v>
       </c>
       <c r="C67" t="n">
-        <v>8017.04</v>
+        <v>2541.35</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>2.04719</v>
+        <v>2.04612</v>
       </c>
       <c r="B68" t="n">
-        <v>7.89301</v>
+        <v>2.52727</v>
       </c>
       <c r="C68" t="n">
-        <v>7893.01</v>
+        <v>2527.27</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>2.07831</v>
+        <v>2.07727</v>
       </c>
       <c r="B69" t="n">
-        <v>7.74615</v>
+        <v>2.51245</v>
       </c>
       <c r="C69" t="n">
-        <v>7746.15</v>
+        <v>2512.45</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>2.10938</v>
+        <v>2.10817</v>
       </c>
       <c r="B70" t="n">
-        <v>7.62713</v>
+        <v>2.49697</v>
       </c>
       <c r="C70" t="n">
-        <v>7627.13</v>
+        <v>2496.97</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>2.14044</v>
+        <v>2.1392</v>
       </c>
       <c r="B71" t="n">
-        <v>7.51851</v>
+        <v>2.48071</v>
       </c>
       <c r="C71" t="n">
-        <v>7518.51</v>
+        <v>2480.71</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>2.17118</v>
+        <v>2.17021</v>
       </c>
       <c r="B72" t="n">
-        <v>7.42204</v>
+        <v>2.46381</v>
       </c>
       <c r="C72" t="n">
-        <v>7422.04</v>
+        <v>2463.81</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>2.20239</v>
+        <v>2.20126</v>
       </c>
       <c r="B73" t="n">
-        <v>7.28324</v>
+        <v>2.44597</v>
       </c>
       <c r="C73" t="n">
-        <v>7283.24</v>
+        <v>2445.97</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>2.23382</v>
+        <v>2.232</v>
       </c>
       <c r="B74" t="n">
-        <v>7.2282</v>
+        <v>2.42756</v>
       </c>
       <c r="C74" t="n">
-        <v>7228.2</v>
+        <v>2427.56</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>2.26477</v>
+        <v>2.26335</v>
       </c>
       <c r="B75" t="n">
-        <v>7.1261</v>
+        <v>2.40804</v>
       </c>
       <c r="C75" t="n">
-        <v>7126.1</v>
+        <v>2408.04</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>2.29451</v>
+        <v>2.29413</v>
       </c>
       <c r="B76" t="n">
-        <v>7.03891</v>
+        <v>2.38791</v>
       </c>
       <c r="C76" t="n">
-        <v>7038.91</v>
+        <v>2387.91</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>2.32606</v>
+        <v>2.32515</v>
       </c>
       <c r="B77" t="n">
-        <v>6.95463</v>
+        <v>2.36684</v>
       </c>
       <c r="C77" t="n">
-        <v>6954.63</v>
+        <v>2366.84</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>2.35713</v>
+        <v>2.35622</v>
       </c>
       <c r="B78" t="n">
-        <v>6.920920000000001</v>
+        <v>2.34501</v>
       </c>
       <c r="C78" t="n">
-        <v>6920.92</v>
+        <v>2345.01</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>2.38785</v>
+        <v>2.38715</v>
       </c>
       <c r="B79" t="n">
-        <v>6.90295</v>
+        <v>2.32241</v>
       </c>
       <c r="C79" t="n">
-        <v>6902.95</v>
+        <v>2322.41</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>2.41859</v>
+        <v>2.41817</v>
       </c>
       <c r="B80" t="n">
-        <v>6.92581</v>
+        <v>2.29898</v>
       </c>
       <c r="C80" t="n">
-        <v>6925.81</v>
+        <v>2298.98</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>2.44747</v>
+        <v>2.44997</v>
       </c>
       <c r="B81" t="n">
-        <v>6.90748</v>
+        <v>2.27433</v>
       </c>
       <c r="C81" t="n">
-        <v>6907.48</v>
+        <v>2274.33</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>2.47565</v>
+        <v>2.48138</v>
       </c>
       <c r="B82" t="n">
-        <v>6.866810000000001</v>
+        <v>2.24913</v>
       </c>
       <c r="C82" t="n">
-        <v>6866.81</v>
+        <v>2249.13</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>2.50381</v>
+        <v>2.51203</v>
       </c>
       <c r="B83" t="n">
-        <v>6.86849</v>
+        <v>2.22397</v>
       </c>
       <c r="C83" t="n">
-        <v>6868.49</v>
+        <v>2223.97</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>2.53197</v>
+        <v>2.54228</v>
       </c>
       <c r="B84" t="n">
-        <v>6.821560000000001</v>
+        <v>2.19873</v>
       </c>
       <c r="C84" t="n">
-        <v>6821.56</v>
+        <v>2198.73</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>2.56439</v>
+        <v>2.57392</v>
       </c>
       <c r="B85" t="n">
-        <v>6.80509</v>
+        <v>2.17139</v>
       </c>
       <c r="C85" t="n">
-        <v>6805.09</v>
+        <v>2171.39</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>2.59949</v>
+        <v>2.60547</v>
       </c>
       <c r="B86" t="n">
-        <v>6.760800000000001</v>
+        <v>2.14389</v>
       </c>
       <c r="C86" t="n">
-        <v>6760.8</v>
+        <v>2143.89</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>2.6342</v>
+        <v>2.63619</v>
       </c>
       <c r="B87" t="n">
-        <v>6.72735</v>
+        <v>2.1165</v>
       </c>
       <c r="C87" t="n">
-        <v>6727.35</v>
+        <v>2116.5</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>2.66659</v>
+        <v>2.66619</v>
       </c>
       <c r="B88" t="n">
-        <v>6.69316</v>
+        <v>2.08942</v>
       </c>
       <c r="C88" t="n">
-        <v>6693.16</v>
+        <v>2089.42</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>2.69859</v>
+        <v>2.69771</v>
       </c>
       <c r="B89" t="n">
-        <v>6.639100000000001</v>
+        <v>2.06083</v>
       </c>
       <c r="C89" t="n">
-        <v>6639.1</v>
+        <v>2060.83</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>2.73059</v>
+        <v>2.72936</v>
       </c>
       <c r="B90" t="n">
-        <v>6.606260000000001</v>
+        <v>2.03166</v>
       </c>
       <c r="C90" t="n">
-        <v>6606.26</v>
+        <v>2031.66</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>2.76259</v>
+        <v>2.76065</v>
       </c>
       <c r="B91" t="n">
-        <v>6.56279</v>
+        <v>2.00304</v>
       </c>
       <c r="C91" t="n">
-        <v>6562.79</v>
+        <v>2003.04</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>2.79459</v>
+        <v>2.79057</v>
       </c>
       <c r="B92" t="n">
-        <v>6.5382</v>
+        <v>1.97508</v>
       </c>
       <c r="C92" t="n">
-        <v>6538.2</v>
+        <v>1975.08</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>2.82659</v>
+        <v>2.82107</v>
       </c>
       <c r="B93" t="n">
-        <v>6.51621</v>
+        <v>1.94713</v>
       </c>
       <c r="C93" t="n">
-        <v>6516.21</v>
+        <v>1947.13</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>2.85859</v>
+        <v>2.85308</v>
       </c>
       <c r="B94" t="n">
-        <v>6.46361</v>
+        <v>1.91694</v>
       </c>
       <c r="C94" t="n">
-        <v>6463.61</v>
+        <v>1916.94</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>2.89001</v>
+        <v>2.88508</v>
       </c>
       <c r="B95" t="n">
-        <v>6.41749</v>
+        <v>1.88746</v>
       </c>
       <c r="C95" t="n">
-        <v>6417.49</v>
+        <v>1887.46</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>2.91888</v>
+        <v>2.91565</v>
       </c>
       <c r="B96" t="n">
-        <v>6.37587</v>
+        <v>1.85861</v>
       </c>
       <c r="C96" t="n">
-        <v>6375.87</v>
+        <v>1858.61</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>2.94767</v>
+        <v>2.94605</v>
       </c>
       <c r="B97" t="n">
-        <v>6.33137</v>
+        <v>1.83033</v>
       </c>
       <c r="C97" t="n">
-        <v>6331.37</v>
+        <v>1830.33</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>2.97648</v>
+        <v>2.97574</v>
       </c>
       <c r="B98" t="n">
-        <v>6.31805</v>
+        <v>1.80269</v>
       </c>
       <c r="C98" t="n">
-        <v>6318.05</v>
+        <v>1802.69</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>3.00527</v>
+        <v>3.00671</v>
       </c>
       <c r="B99" t="n">
-        <v>6.28976</v>
+        <v>1.77373</v>
       </c>
       <c r="C99" t="n">
-        <v>6289.76</v>
+        <v>1773.73</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>3.03408</v>
+        <v>3.03963</v>
       </c>
       <c r="B100" t="n">
-        <v>6.22984</v>
+        <v>1.74375</v>
       </c>
       <c r="C100" t="n">
-        <v>6229.84</v>
+        <v>1743.75</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>3.06288</v>
+        <v>3.07104</v>
       </c>
       <c r="B101" t="n">
-        <v>6.19933</v>
+        <v>1.71462</v>
       </c>
       <c r="C101" t="n">
-        <v>6199.33</v>
+        <v>1714.62</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>3.09167</v>
+        <v>3.10212</v>
       </c>
       <c r="B102" t="n">
-        <v>6.14812</v>
+        <v>1.68634</v>
       </c>
       <c r="C102" t="n">
-        <v>6148.12</v>
+        <v>1686.34</v>
       </c>
     </row>
   </sheetData>
